--- a/output/table_1.xlsx
+++ b/output/table_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -48,30 +48,30 @@
     <t xml:space="preserve">     Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">Marital status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     divorced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Bangkok</t>
+  </si>
+  <si>
     <t xml:space="preserve">     others</t>
   </si>
   <si>
-    <t xml:space="preserve">Marital status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     divorced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     widow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Bangkok</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -153,10 +153,7 @@
     <t xml:space="preserve">     Bedbound</t>
   </si>
   <si>
-    <t xml:space="preserve">Hearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Hearing aid</t>
+    <t xml:space="preserve">PatientHearing</t>
   </si>
   <si>
     <t xml:space="preserve">     Hearing impairment</t>
@@ -370,132 +367,135 @@
     <t xml:space="preserve">23.5 (21.3, 25.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">262 (96%)</t>
+    <t xml:space="preserve">263 (97%)</t>
   </si>
   <si>
     <t xml:space="preserve">9 (3.3%)</t>
   </si>
   <si>
+    <t xml:space="preserve">50 (18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172 (63%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (3.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182 (67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 (33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (1.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191 (70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93 (34%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (8.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (8.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132 (49%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 (19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 (16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66 (24%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 (22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221 (87%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (7.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (5.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260 (96%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (4.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257 (94%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (5.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 (37%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234 (86%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (2.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247 (91%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (8.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 (94%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 (42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155 (57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (0.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230 (85%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (1.8%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 (0.4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">50 (18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172 (63%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (3.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182 (67%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 (33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (1.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191 (70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93 (34%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (8.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (8.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132 (49%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 (19%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 (16%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 (24%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 (22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221 (87%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (7.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (5.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260 (96%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (4.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255 (94%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (0.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (5.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 (37%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234 (86%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (2.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247 (91%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (8.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (2.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115 (42%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155 (57%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230 (85%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (1.8%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">111 (41%)</t>
   </si>
   <si>
@@ -542,9 +542,6 @@
   </si>
   <si>
     <t xml:space="preserve">75 (28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257 (94%)</t>
   </si>
   <si>
     <t xml:space="preserve">186 (68%)</t>
@@ -1044,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -1052,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -1060,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -1068,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -1076,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -1084,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -1092,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -1100,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -1108,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -1116,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1124,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -1132,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -1140,7 +1137,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1148,7 +1145,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -1156,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1164,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1172,7 +1169,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
@@ -1180,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
@@ -1188,263 +1185,263 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>142</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="8" t="n">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
@@ -1452,127 +1449,127 @@
         <v>49</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
@@ -1580,12 +1577,12 @@
         <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>155</v>
@@ -1593,130 +1590,130 @@
     </row>
     <row r="70" ht="NA" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" ht="NA" customHeight="1">
+      <c r="A71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="71" ht="NA" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
     <row r="72" ht="NA" customHeight="1">
-      <c r="A72" s="3" t="s">
-        <v>67</v>
+      <c r="A72" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
       <c r="A74" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" ht="NA" customHeight="1">
-      <c r="A75" s="3" t="n">
-        <v>2</v>
+      <c r="A75" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" ht="NA" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="76" ht="NA" customHeight="1">
-      <c r="A76" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
@@ -1724,23 +1721,23 @@
         <v>77</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
@@ -1748,23 +1745,23 @@
         <v>79</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
@@ -1772,23 +1769,23 @@
         <v>81</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
@@ -1796,23 +1793,23 @@
         <v>83</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
@@ -1820,23 +1817,23 @@
         <v>85</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
@@ -1844,23 +1841,23 @@
         <v>87</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" ht="NA" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" ht="NA" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" ht="NA" customHeight="1">
@@ -1868,23 +1865,23 @@
         <v>89</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" ht="NA" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" ht="NA" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" ht="NA" customHeight="1">
@@ -1892,23 +1889,23 @@
         <v>91</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" ht="NA" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" ht="NA" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" ht="NA" customHeight="1">
@@ -1916,28 +1913,28 @@
         <v>93</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" ht="NA" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B111" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" ht="NA" customHeight="1">
+      <c r="A112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="112" ht="NA" customHeight="1">
-      <c r="A112" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="113" ht="NA" customHeight="1">
-      <c r="A113" s="3" t="s">
-        <v>95</v>
+      <c r="A113" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>112</v>
@@ -1945,47 +1942,47 @@
     </row>
     <row r="114" ht="NA" customHeight="1">
       <c r="A114" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" ht="NA" customHeight="1">
       <c r="A115" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" ht="NA" customHeight="1">
-      <c r="A116" s="3" t="n">
-        <v>2</v>
+      <c r="A116" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" ht="NA" customHeight="1">
       <c r="A117" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" ht="NA" customHeight="1">
-      <c r="A118" s="3" t="s">
-        <v>96</v>
+      <c r="A118" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" ht="NA" customHeight="1">
       <c r="A119" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>178</v>
@@ -1993,311 +1990,311 @@
     </row>
     <row r="120" ht="NA" customHeight="1">
       <c r="A120" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" ht="NA" customHeight="1">
-      <c r="A121" s="3" t="n">
-        <v>2</v>
+      <c r="A121" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" ht="NA" customHeight="1">
       <c r="A122" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" ht="NA" customHeight="1">
-      <c r="A123" s="3" t="s">
-        <v>97</v>
+      <c r="A123" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" ht="NA" customHeight="1">
       <c r="A124" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" ht="NA" customHeight="1">
       <c r="A125" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="126" ht="NA" customHeight="1">
-      <c r="A126" s="3" t="n">
-        <v>2</v>
+      <c r="A126" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" ht="NA" customHeight="1">
       <c r="A127" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="128" ht="NA" customHeight="1">
-      <c r="A128" s="3" t="s">
-        <v>98</v>
+      <c r="A128" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" ht="NA" customHeight="1">
       <c r="A129" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130" ht="NA" customHeight="1">
       <c r="A130" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" ht="NA" customHeight="1">
-      <c r="A131" s="3" t="n">
-        <v>2</v>
+      <c r="A131" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" ht="NA" customHeight="1">
       <c r="A132" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" ht="NA" customHeight="1">
-      <c r="A133" s="3" t="s">
-        <v>99</v>
+      <c r="A133" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" ht="NA" customHeight="1">
       <c r="A134" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" ht="NA" customHeight="1">
       <c r="A135" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" ht="NA" customHeight="1">
-      <c r="A136" s="3" t="n">
-        <v>2</v>
+      <c r="A136" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137" ht="NA" customHeight="1">
       <c r="A137" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" ht="NA" customHeight="1">
-      <c r="A138" s="3" t="s">
-        <v>100</v>
+      <c r="A138" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" ht="NA" customHeight="1">
       <c r="A139" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" ht="NA" customHeight="1">
       <c r="A140" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141" ht="NA" customHeight="1">
-      <c r="A141" s="3" t="n">
-        <v>2</v>
+      <c r="A141" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" ht="NA" customHeight="1">
       <c r="A142" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" ht="NA" customHeight="1">
-      <c r="A143" s="3" t="s">
-        <v>101</v>
+      <c r="A143" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" ht="NA" customHeight="1">
       <c r="A144" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" ht="NA" customHeight="1">
       <c r="A145" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" ht="NA" customHeight="1">
-      <c r="A146" s="3" t="n">
-        <v>2</v>
+      <c r="A146" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" ht="NA" customHeight="1">
       <c r="A147" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" ht="NA" customHeight="1">
-      <c r="A148" s="3" t="s">
-        <v>102</v>
+      <c r="A148" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" ht="NA" customHeight="1">
       <c r="A149" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" ht="NA" customHeight="1">
       <c r="A150" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" ht="NA" customHeight="1">
-      <c r="A151" s="3" t="n">
-        <v>2</v>
+      <c r="A151" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152" ht="NA" customHeight="1">
       <c r="A152" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" ht="NA" customHeight="1">
-      <c r="A153" s="3" t="s">
-        <v>103</v>
+      <c r="A153" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" ht="NA" customHeight="1">
       <c r="A154" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155" ht="NA" customHeight="1">
       <c r="A155" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" ht="NA" customHeight="1">
-      <c r="A156" s="3" t="n">
-        <v>2</v>
+      <c r="A156" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
     </row>
     <row r="157" ht="NA" customHeight="1">
-      <c r="A157" s="3" t="n">
-        <v>3</v>
+      <c r="A157" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="158" ht="NA" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>191</v>
@@ -2305,47 +2302,31 @@
     </row>
     <row r="159" ht="NA" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
     </row>
     <row r="160" ht="NA" customHeight="1">
-      <c r="A160" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>192</v>
+      <c r="A160" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="161" ht="NA" customHeight="1">
-      <c r="A161" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="162" ht="NA" customHeight="1">
-      <c r="A162" s="4" t="s">
+      <c r="A161" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B162" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="163" ht="NA" customHeight="1">
-      <c r="A163" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>109</v>
+      <c r="B161" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A161:B161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/table_1.xlsx
+++ b/output/table_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -129,16 +129,13 @@
     <t xml:space="preserve">     Same</t>
   </si>
   <si>
-    <t xml:space="preserve">     Less than 50%</t>
+    <t xml:space="preserve">     Less than 50% loss</t>
   </si>
   <si>
     <t xml:space="preserve">     Over 50% loss</t>
   </si>
   <si>
     <t xml:space="preserve">     No income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Unknown</t>
   </si>
   <si>
     <t xml:space="preserve">Ambulation</t>
@@ -430,13 +427,16 @@
     <t xml:space="preserve">60 (22%)</t>
   </si>
   <si>
-    <t xml:space="preserve">221 (87%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (7.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (5.1%)</t>
+    <t xml:space="preserve">221 (81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (6.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (7.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (4.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">260 (96%)</t>
@@ -559,9 +559,6 @@
     <t xml:space="preserve">65 (24%)</t>
   </si>
   <si>
-    <t xml:space="preserve">13 (4.8%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">208 (76%)</t>
   </si>
   <si>
@@ -578,9 +575,6 @@
   </si>
   <si>
     <t xml:space="preserve">254 (93%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (7.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">268 (99%)</t>
@@ -1041,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -1049,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -1057,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -1065,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -1073,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -1081,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -1089,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -1097,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -1105,7 +1099,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -1113,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1121,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -1129,7 +1123,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -1137,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1145,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -1153,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1161,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1169,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
@@ -1177,7 +1171,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
@@ -1185,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
@@ -1193,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
@@ -1201,7 +1195,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
@@ -1209,7 +1203,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
@@ -1217,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
@@ -1225,7 +1219,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
@@ -1233,7 +1227,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
@@ -1241,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
@@ -1249,7 +1243,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
@@ -1257,7 +1251,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
@@ -1265,7 +1259,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
@@ -1273,7 +1267,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
@@ -1281,7 +1275,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
@@ -1289,7 +1283,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
@@ -1297,7 +1291,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
@@ -1305,7 +1299,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
@@ -1313,7 +1307,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
@@ -1321,7 +1315,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
@@ -1329,7 +1323,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
@@ -1337,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
@@ -1345,7 +1339,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
@@ -1368,8 +1362,8 @@
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="n">
-        <v>18</v>
+      <c r="B42" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
@@ -1377,7 +1371,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
@@ -1385,7 +1379,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
@@ -1393,7 +1387,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
@@ -1401,23 +1395,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
@@ -1425,23 +1419,23 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
@@ -1449,7 +1443,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
@@ -1457,7 +1451,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
@@ -1465,7 +1459,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
@@ -1473,7 +1467,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
@@ -1481,7 +1475,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
@@ -1489,7 +1483,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
@@ -1497,7 +1491,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
@@ -1505,7 +1499,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
@@ -1513,7 +1507,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
@@ -1521,7 +1515,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
@@ -1529,7 +1523,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
@@ -1537,7 +1531,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
@@ -1545,7 +1539,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
@@ -1553,23 +1547,23 @@
         <v>62</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
@@ -1577,7 +1571,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
@@ -1585,47 +1579,47 @@
         <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" ht="NA" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>66</v>
+      <c r="A70" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
       <c r="A71" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
-      <c r="A74" s="3" t="n">
-        <v>3</v>
+      <c r="A74" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" ht="NA" customHeight="1">
@@ -1633,7 +1627,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
@@ -1641,7 +1635,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
@@ -1649,7 +1643,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
@@ -1657,7 +1651,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
@@ -1665,7 +1659,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
@@ -1673,7 +1667,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
@@ -1681,7 +1675,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
@@ -1689,7 +1683,7 @@
         <v>74</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
@@ -1697,23 +1691,23 @@
         <v>75</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
@@ -1721,23 +1715,23 @@
         <v>77</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
@@ -1745,23 +1739,23 @@
         <v>79</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
@@ -1769,23 +1763,23 @@
         <v>81</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
@@ -1793,23 +1787,23 @@
         <v>83</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
@@ -1817,23 +1811,23 @@
         <v>85</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
@@ -1841,23 +1835,23 @@
         <v>87</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" ht="NA" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" ht="NA" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" ht="NA" customHeight="1">
@@ -1865,23 +1859,23 @@
         <v>89</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" ht="NA" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" ht="NA" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" ht="NA" customHeight="1">
@@ -1889,23 +1883,23 @@
         <v>91</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" ht="NA" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" ht="NA" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" ht="NA" customHeight="1">
@@ -1913,140 +1907,140 @@
         <v>93</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" ht="NA" customHeight="1">
-      <c r="A111" s="3" t="s">
-        <v>94</v>
+      <c r="A111" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" ht="NA" customHeight="1">
       <c r="A112" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" ht="NA" customHeight="1">
       <c r="A113" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" ht="NA" customHeight="1">
       <c r="A114" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" ht="NA" customHeight="1">
-      <c r="A115" s="3" t="n">
-        <v>3</v>
+      <c r="A115" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" ht="NA" customHeight="1">
-      <c r="A116" s="3" t="s">
-        <v>95</v>
+      <c r="A116" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" ht="NA" customHeight="1">
       <c r="A117" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" ht="NA" customHeight="1">
       <c r="A118" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" ht="NA" customHeight="1">
       <c r="A119" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" ht="NA" customHeight="1">
-      <c r="A120" s="3" t="n">
-        <v>3</v>
+      <c r="A120" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" ht="NA" customHeight="1">
-      <c r="A121" s="3" t="s">
-        <v>96</v>
+      <c r="A121" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" ht="NA" customHeight="1">
       <c r="A122" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" ht="NA" customHeight="1">
       <c r="A123" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" ht="NA" customHeight="1">
       <c r="A124" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" ht="NA" customHeight="1">
-      <c r="A125" s="3" t="n">
-        <v>3</v>
+      <c r="A125" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B125" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="126" ht="NA" customHeight="1">
+      <c r="A126" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="126" ht="NA" customHeight="1">
-      <c r="A126" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="127" ht="NA" customHeight="1">
       <c r="A127" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>182</v>
@@ -2054,39 +2048,39 @@
     </row>
     <row r="128" ht="NA" customHeight="1">
       <c r="A128" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" ht="NA" customHeight="1">
       <c r="A129" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" ht="NA" customHeight="1">
-      <c r="A130" s="3" t="n">
-        <v>3</v>
+      <c r="A130" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" ht="NA" customHeight="1">
-      <c r="A131" s="3" t="s">
-        <v>98</v>
+      <c r="A131" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" ht="NA" customHeight="1">
       <c r="A132" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>184</v>
@@ -2094,7 +2088,7 @@
     </row>
     <row r="133" ht="NA" customHeight="1">
       <c r="A133" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>185</v>
@@ -2102,178 +2096,178 @@
     </row>
     <row r="134" ht="NA" customHeight="1">
       <c r="A134" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B134" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" ht="NA" customHeight="1">
+      <c r="A135" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" ht="NA" customHeight="1">
+      <c r="A136" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="135" ht="NA" customHeight="1">
-      <c r="A135" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" ht="NA" customHeight="1">
-      <c r="A136" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="137" ht="NA" customHeight="1">
       <c r="A137" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" ht="NA" customHeight="1">
       <c r="A138" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139" ht="NA" customHeight="1">
       <c r="A139" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" ht="NA" customHeight="1">
-      <c r="A140" s="3" t="n">
-        <v>3</v>
+      <c r="A140" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" ht="NA" customHeight="1">
-      <c r="A141" s="3" t="s">
-        <v>100</v>
+      <c r="A141" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" ht="NA" customHeight="1">
       <c r="A142" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" ht="NA" customHeight="1">
       <c r="A143" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" ht="NA" customHeight="1">
       <c r="A144" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="145" ht="NA" customHeight="1">
-      <c r="A145" s="3" t="n">
-        <v>3</v>
+      <c r="A145" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" ht="NA" customHeight="1">
-      <c r="A146" s="3" t="s">
-        <v>101</v>
+      <c r="A146" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" ht="NA" customHeight="1">
       <c r="A147" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" ht="NA" customHeight="1">
       <c r="A148" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" ht="NA" customHeight="1">
       <c r="A149" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" ht="NA" customHeight="1">
-      <c r="A150" s="3" t="n">
-        <v>3</v>
+      <c r="A150" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" ht="NA" customHeight="1">
-      <c r="A151" s="3" t="s">
-        <v>102</v>
+      <c r="A151" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="152" ht="NA" customHeight="1">
       <c r="A152" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" ht="NA" customHeight="1">
       <c r="A153" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" ht="NA" customHeight="1">
       <c r="A154" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" ht="NA" customHeight="1">
-      <c r="A155" s="3" t="n">
-        <v>3</v>
+      <c r="A155" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
     </row>
     <row r="156" ht="NA" customHeight="1">
@@ -2281,7 +2275,7 @@
         <v>103</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" ht="NA" customHeight="1">
@@ -2289,7 +2283,7 @@
         <v>104</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" ht="NA" customHeight="1">
@@ -2297,36 +2291,28 @@
         <v>105</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" ht="NA" customHeight="1">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>192</v>
+      <c r="B159" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="160" ht="NA" customHeight="1">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="161" ht="NA" customHeight="1">
-      <c r="A161" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>108</v>
+      <c r="B160" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A160:B160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/table_1.xlsx
+++ b/output/table_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -48,6 +48,9 @@
     <t xml:space="preserve">     Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">     others</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marital status</t>
   </si>
   <si>
@@ -69,9 +72,6 @@
     <t xml:space="preserve">     Bangkok</t>
   </si>
   <si>
-    <t xml:space="preserve">     others</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -150,7 +150,10 @@
     <t xml:space="preserve">     Bedbound</t>
   </si>
   <si>
-    <t xml:space="preserve">PatientHearing</t>
+    <t xml:space="preserve">Hearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Hearing aid</t>
   </si>
   <si>
     <t xml:space="preserve">     Hearing impairment</t>
@@ -364,12 +367,15 @@
     <t xml:space="preserve">23.5 (21.3, 25.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">263 (97%)</t>
+    <t xml:space="preserve">262 (96%)</t>
   </si>
   <si>
     <t xml:space="preserve">9 (3.3%)</t>
   </si>
   <si>
+    <t xml:space="preserve">1 (0.4%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">50 (18%)</t>
   </si>
   <si>
@@ -445,103 +451,100 @@
     <t xml:space="preserve">12 (4.4%)</t>
   </si>
   <si>
+    <t xml:space="preserve">255 (94%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (0.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (5.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 (37%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234 (86%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (2.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247 (91%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (8.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 (42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155 (57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230 (85%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (1.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111 (41%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131 (48%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238 (88%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 (19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219 (81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251 (92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (7.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216 (79%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 (21%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 (92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211 (78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 (22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249 (92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197 (72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 (28%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">257 (94%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (5.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 (37%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234 (86%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (2.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247 (91%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (8.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255 (94%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (2.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115 (42%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155 (57%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (0.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230 (85%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (1.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (0.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 (41%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131 (48%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238 (88%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 (19%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219 (81%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">251 (92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (7.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216 (79%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 (21%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250 (92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211 (78%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249 (92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197 (72%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 (28%)</t>
   </si>
   <si>
     <t xml:space="preserve">186 (68%)</t>
@@ -1035,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -1043,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -1051,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -1059,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -1067,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -1075,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -1083,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -1091,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -1099,7 +1102,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -1107,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1115,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -1123,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -1131,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1139,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -1147,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1155,7 +1158,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1163,7 +1166,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
@@ -1171,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
@@ -1179,255 +1182,255 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
@@ -1435,127 +1438,127 @@
         <v>48</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
@@ -1563,12 +1566,12 @@
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>155</v>
@@ -1576,130 +1579,130 @@
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" ht="NA" customHeight="1">
+      <c r="A70" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" ht="NA" customHeight="1">
-      <c r="A70" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="B70" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
-      <c r="A71" s="3" t="n">
-        <v>1</v>
+      <c r="A71" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" ht="NA" customHeight="1">
+      <c r="A74" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" ht="NA" customHeight="1">
+      <c r="A75" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" ht="NA" customHeight="1">
-      <c r="A74" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" ht="NA" customHeight="1">
-      <c r="A75" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="B75" s="8" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
@@ -1707,23 +1710,23 @@
         <v>76</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
@@ -1731,23 +1734,23 @@
         <v>78</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
@@ -1755,23 +1758,23 @@
         <v>80</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
@@ -1779,23 +1782,23 @@
         <v>82</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
@@ -1803,23 +1806,23 @@
         <v>84</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
@@ -1827,23 +1830,23 @@
         <v>86</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" ht="NA" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" ht="NA" customHeight="1">
@@ -1851,23 +1854,23 @@
         <v>88</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" ht="NA" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" ht="NA" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" ht="NA" customHeight="1">
@@ -1875,23 +1878,23 @@
         <v>90</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" ht="NA" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" ht="NA" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" ht="NA" customHeight="1">
@@ -1899,28 +1902,28 @@
         <v>92</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" ht="NA" customHeight="1">
       <c r="A110" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" ht="NA" customHeight="1">
+      <c r="A111" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" ht="NA" customHeight="1">
-      <c r="A111" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="B111" s="8" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" ht="NA" customHeight="1">
-      <c r="A112" s="3" t="n">
-        <v>1</v>
+      <c r="A112" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>111</v>
@@ -1928,47 +1931,47 @@
     </row>
     <row r="113" ht="NA" customHeight="1">
       <c r="A113" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" ht="NA" customHeight="1">
       <c r="A114" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" ht="NA" customHeight="1">
-      <c r="A115" s="3" t="s">
-        <v>94</v>
+      <c r="A115" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" ht="NA" customHeight="1">
       <c r="A116" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" ht="NA" customHeight="1">
-      <c r="A117" s="3" t="n">
-        <v>1</v>
+      <c r="A117" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" ht="NA" customHeight="1">
       <c r="A118" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>178</v>
@@ -1976,311 +1979,311 @@
     </row>
     <row r="119" ht="NA" customHeight="1">
       <c r="A119" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" ht="NA" customHeight="1">
-      <c r="A120" s="3" t="s">
-        <v>95</v>
+      <c r="A120" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" ht="NA" customHeight="1">
       <c r="A121" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" ht="NA" customHeight="1">
-      <c r="A122" s="3" t="n">
-        <v>1</v>
+      <c r="A122" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" ht="NA" customHeight="1">
       <c r="A123" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" ht="NA" customHeight="1">
       <c r="A124" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" ht="NA" customHeight="1">
-      <c r="A125" s="3" t="s">
-        <v>96</v>
+      <c r="A125" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" ht="NA" customHeight="1">
       <c r="A126" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" ht="NA" customHeight="1">
-      <c r="A127" s="3" t="n">
-        <v>1</v>
+      <c r="A127" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" ht="NA" customHeight="1">
       <c r="A128" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" ht="NA" customHeight="1">
       <c r="A129" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" ht="NA" customHeight="1">
-      <c r="A130" s="3" t="s">
-        <v>97</v>
+      <c r="A130" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" ht="NA" customHeight="1">
       <c r="A131" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" ht="NA" customHeight="1">
-      <c r="A132" s="3" t="n">
-        <v>1</v>
+      <c r="A132" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" ht="NA" customHeight="1">
       <c r="A133" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" ht="NA" customHeight="1">
       <c r="A134" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" ht="NA" customHeight="1">
-      <c r="A135" s="3" t="s">
-        <v>98</v>
+      <c r="A135" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" ht="NA" customHeight="1">
       <c r="A136" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" ht="NA" customHeight="1">
-      <c r="A137" s="3" t="n">
-        <v>1</v>
+      <c r="A137" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" ht="NA" customHeight="1">
       <c r="A138" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" ht="NA" customHeight="1">
       <c r="A139" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" ht="NA" customHeight="1">
-      <c r="A140" s="3" t="s">
-        <v>99</v>
+      <c r="A140" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" ht="NA" customHeight="1">
       <c r="A141" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" ht="NA" customHeight="1">
-      <c r="A142" s="3" t="n">
-        <v>1</v>
+      <c r="A142" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" ht="NA" customHeight="1">
       <c r="A143" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144" ht="NA" customHeight="1">
       <c r="A144" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" ht="NA" customHeight="1">
-      <c r="A145" s="3" t="s">
-        <v>100</v>
+      <c r="A145" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146" ht="NA" customHeight="1">
       <c r="A146" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" ht="NA" customHeight="1">
-      <c r="A147" s="3" t="n">
-        <v>1</v>
+      <c r="A147" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" ht="NA" customHeight="1">
       <c r="A148" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149" ht="NA" customHeight="1">
       <c r="A149" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" ht="NA" customHeight="1">
-      <c r="A150" s="3" t="s">
-        <v>101</v>
+      <c r="A150" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" ht="NA" customHeight="1">
       <c r="A151" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" ht="NA" customHeight="1">
-      <c r="A152" s="3" t="n">
-        <v>1</v>
+      <c r="A152" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" ht="NA" customHeight="1">
       <c r="A153" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
     </row>
     <row r="154" ht="NA" customHeight="1">
       <c r="A154" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" ht="NA" customHeight="1">
+      <c r="A155" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="156" ht="NA" customHeight="1">
+      <c r="A156" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="155" ht="NA" customHeight="1">
-      <c r="A155" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="156" ht="NA" customHeight="1">
-      <c r="A156" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="B156" s="8" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" ht="NA" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>189</v>
@@ -2288,31 +2291,47 @@
     </row>
     <row r="158" ht="NA" customHeight="1">
       <c r="A158" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159" ht="NA" customHeight="1">
+      <c r="A159" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B159" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="159" ht="NA" customHeight="1">
-      <c r="A159" s="4" t="s">
+    <row r="160" ht="NA" customHeight="1">
+      <c r="A160" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B159" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="160" ht="NA" customHeight="1">
-      <c r="A160" s="5" t="s">
+      <c r="B160" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" ht="NA" customHeight="1">
+      <c r="A161" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B160" s="5" t="s">
-        <v>107</v>
+      <c r="B161" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="162" ht="NA" customHeight="1">
+      <c r="A162" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A162:B162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/table_1.xlsx
+++ b/output/table_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -48,30 +48,30 @@
     <t xml:space="preserve">     Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">Marital status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     divorced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Bangkok</t>
+  </si>
+  <si>
     <t xml:space="preserve">     others</t>
   </si>
   <si>
-    <t xml:space="preserve">Marital status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     divorced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     widow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Bangkok</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -150,10 +150,7 @@
     <t xml:space="preserve">     Bedbound</t>
   </si>
   <si>
-    <t xml:space="preserve">Hearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Hearing aid</t>
+    <t xml:space="preserve">PatientHearing</t>
   </si>
   <si>
     <t xml:space="preserve">     Hearing impairment</t>
@@ -367,135 +364,138 @@
     <t xml:space="preserve">23.5 (21.3, 25.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">262 (96%)</t>
+    <t xml:space="preserve">263 (97%)</t>
   </si>
   <si>
     <t xml:space="preserve">9 (3.3%)</t>
   </si>
   <si>
+    <t xml:space="preserve">50 (18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172 (63%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (3.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182 (67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 (33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (1.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191 (70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93 (34%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (8.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (8.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132 (49%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 (19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 (16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66 (24%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 (22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221 (81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (6.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (7.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (4.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260 (96%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (4.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257 (94%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (5.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 (37%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234 (86%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (2.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247 (91%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (8.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 (94%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 (42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155 (57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (0.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230 (85%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (1.8%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 (0.4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">50 (18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172 (63%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (3.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182 (67%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 (33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (1.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191 (70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93 (34%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (8.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (8.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132 (49%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 (19%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 (16%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 (24%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 (22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221 (81%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (6.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (7.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (4.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260 (96%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (4.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255 (94%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (0.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (5.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 (37%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234 (86%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (2.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247 (91%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (8.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (2.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115 (42%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155 (57%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230 (85%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (1.8%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">111 (41%)</t>
   </si>
   <si>
@@ -542,9 +542,6 @@
   </si>
   <si>
     <t xml:space="preserve">75 (28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257 (94%)</t>
   </si>
   <si>
     <t xml:space="preserve">186 (68%)</t>
@@ -1038,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -1046,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -1054,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -1062,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -1070,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -1078,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -1086,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -1094,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -1102,7 +1099,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -1110,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1118,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -1126,7 +1123,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -1134,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1142,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -1150,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1158,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1166,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
@@ -1174,7 +1171,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
@@ -1182,255 +1179,255 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
@@ -1438,127 +1435,127 @@
         <v>48</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
@@ -1566,12 +1563,12 @@
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>155</v>
@@ -1579,130 +1576,130 @@
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" ht="NA" customHeight="1">
+      <c r="A70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="70" ht="NA" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
     <row r="71" ht="NA" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>66</v>
+      <c r="A71" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
-      <c r="A74" s="3" t="n">
-        <v>2</v>
+      <c r="A74" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" ht="NA" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="75" ht="NA" customHeight="1">
-      <c r="A75" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
@@ -1710,23 +1707,23 @@
         <v>76</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
@@ -1734,23 +1731,23 @@
         <v>78</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
@@ -1758,23 +1755,23 @@
         <v>80</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
@@ -1782,23 +1779,23 @@
         <v>82</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
@@ -1806,23 +1803,23 @@
         <v>84</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
@@ -1830,23 +1827,23 @@
         <v>86</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" ht="NA" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" ht="NA" customHeight="1">
@@ -1854,23 +1851,23 @@
         <v>88</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" ht="NA" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" ht="NA" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" ht="NA" customHeight="1">
@@ -1878,23 +1875,23 @@
         <v>90</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" ht="NA" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" ht="NA" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" ht="NA" customHeight="1">
@@ -1902,28 +1899,28 @@
         <v>92</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" ht="NA" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B110" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" ht="NA" customHeight="1">
+      <c r="A111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="111" ht="NA" customHeight="1">
-      <c r="A111" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="112" ht="NA" customHeight="1">
-      <c r="A112" s="3" t="s">
-        <v>94</v>
+      <c r="A112" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>111</v>
@@ -1931,47 +1928,47 @@
     </row>
     <row r="113" ht="NA" customHeight="1">
       <c r="A113" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" ht="NA" customHeight="1">
       <c r="A114" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" ht="NA" customHeight="1">
-      <c r="A115" s="3" t="n">
-        <v>2</v>
+      <c r="A115" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" ht="NA" customHeight="1">
       <c r="A116" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" ht="NA" customHeight="1">
-      <c r="A117" s="3" t="s">
-        <v>95</v>
+      <c r="A117" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" ht="NA" customHeight="1">
       <c r="A118" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>178</v>
@@ -1979,311 +1976,311 @@
     </row>
     <row r="119" ht="NA" customHeight="1">
       <c r="A119" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" ht="NA" customHeight="1">
-      <c r="A120" s="3" t="n">
-        <v>2</v>
+      <c r="A120" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" ht="NA" customHeight="1">
       <c r="A121" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" ht="NA" customHeight="1">
-      <c r="A122" s="3" t="s">
-        <v>96</v>
+      <c r="A122" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" ht="NA" customHeight="1">
       <c r="A123" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" ht="NA" customHeight="1">
       <c r="A124" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" ht="NA" customHeight="1">
-      <c r="A125" s="3" t="n">
-        <v>2</v>
+      <c r="A125" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" ht="NA" customHeight="1">
       <c r="A126" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" ht="NA" customHeight="1">
-      <c r="A127" s="3" t="s">
-        <v>97</v>
+      <c r="A127" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" ht="NA" customHeight="1">
       <c r="A128" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" ht="NA" customHeight="1">
       <c r="A129" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" ht="NA" customHeight="1">
-      <c r="A130" s="3" t="n">
-        <v>2</v>
+      <c r="A130" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" ht="NA" customHeight="1">
       <c r="A131" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" ht="NA" customHeight="1">
-      <c r="A132" s="3" t="s">
-        <v>98</v>
+      <c r="A132" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" ht="NA" customHeight="1">
       <c r="A133" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" ht="NA" customHeight="1">
       <c r="A134" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" ht="NA" customHeight="1">
-      <c r="A135" s="3" t="n">
-        <v>2</v>
+      <c r="A135" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" ht="NA" customHeight="1">
       <c r="A136" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" ht="NA" customHeight="1">
-      <c r="A137" s="3" t="s">
-        <v>99</v>
+      <c r="A137" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" ht="NA" customHeight="1">
       <c r="A138" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139" ht="NA" customHeight="1">
       <c r="A139" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" ht="NA" customHeight="1">
-      <c r="A140" s="3" t="n">
-        <v>2</v>
+      <c r="A140" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" ht="NA" customHeight="1">
       <c r="A141" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" ht="NA" customHeight="1">
-      <c r="A142" s="3" t="s">
-        <v>100</v>
+      <c r="A142" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" ht="NA" customHeight="1">
       <c r="A143" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" ht="NA" customHeight="1">
       <c r="A144" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" ht="NA" customHeight="1">
-      <c r="A145" s="3" t="n">
-        <v>2</v>
+      <c r="A145" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" ht="NA" customHeight="1">
       <c r="A146" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" ht="NA" customHeight="1">
-      <c r="A147" s="3" t="s">
-        <v>101</v>
+      <c r="A147" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" ht="NA" customHeight="1">
       <c r="A148" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" ht="NA" customHeight="1">
       <c r="A149" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" ht="NA" customHeight="1">
-      <c r="A150" s="3" t="n">
-        <v>2</v>
+      <c r="A150" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" ht="NA" customHeight="1">
       <c r="A151" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
     </row>
     <row r="152" ht="NA" customHeight="1">
-      <c r="A152" s="3" t="s">
-        <v>102</v>
+      <c r="A152" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" ht="NA" customHeight="1">
       <c r="A153" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" ht="NA" customHeight="1">
       <c r="A154" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" ht="NA" customHeight="1">
-      <c r="A155" s="3" t="n">
-        <v>2</v>
+      <c r="A155" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
     </row>
     <row r="156" ht="NA" customHeight="1">
-      <c r="A156" s="3" t="n">
-        <v>3</v>
+      <c r="A156" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" ht="NA" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>189</v>
@@ -2291,47 +2288,31 @@
     </row>
     <row r="158" ht="NA" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" ht="NA" customHeight="1">
-      <c r="A159" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>190</v>
+      <c r="A159" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="160" ht="NA" customHeight="1">
-      <c r="A160" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="161" ht="NA" customHeight="1">
-      <c r="A161" s="4" t="s">
+      <c r="A160" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B161" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="162" ht="NA" customHeight="1">
-      <c r="A162" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>108</v>
+      <c r="B160" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A160:B160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
